--- a/ReGalaxy/Assets/04Excel/System.xlsx
+++ b/ReGalaxy/Assets/04Excel/System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jiang_Programmer\06Regalaxy\UnityProject_Regalaxy\ReGalaxy\Assets\04Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D6141-5361-4DD9-820B-6A7874802545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D875E8F-5A29-454D-9D8E-8C1B4A08E5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19815" yWindow="1215" windowWidth="21555" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1905" windowWidth="24405" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
   <si>
     <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -320,6 +320,26 @@
   </si>
   <si>
     <t>1001/0.5#1002/0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1824,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F07445-E809-4B94-BF2B-C9C8EC2C6AF2}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1841,9 +1861,13 @@
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1871,8 +1895,20 @@
       <c r="I1" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1894,14 +1930,26 @@
       <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1923,14 +1971,26 @@
       <c r="G3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1952,14 +2012,26 @@
       <c r="G4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1975,20 +2047,32 @@
       <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75">
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2004,20 +2088,32 @@
       <c r="E6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2033,20 +2129,32 @@
       <c r="E7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2062,20 +2170,32 @@
       <c r="E8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2091,20 +2211,32 @@
       <c r="E9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2120,20 +2252,32 @@
       <c r="E10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75">
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2149,20 +2293,32 @@
       <c r="E11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2178,20 +2334,32 @@
       <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2207,17 +2375,29 @@
       <c r="E13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
